--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Neuropatía.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Neuropatía.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15.88131775019782</v>
+        <v>15.85831168482834</v>
       </c>
       <c r="B2" t="n">
-        <v>12.70429084802134</v>
+        <v>12.63945213387992</v>
       </c>
       <c r="C2" t="n">
-        <v>19.05985721838299</v>
+        <v>18.92867860913989</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17.6308277659204</v>
+        <v>17.69684784707468</v>
       </c>
       <c r="B3" t="n">
-        <v>13.6312835316466</v>
+        <v>13.61691913763063</v>
       </c>
       <c r="C3" t="n">
-        <v>21.578388043152</v>
+        <v>21.47189480070147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17.23186442005036</v>
+        <v>17.1670140878365</v>
       </c>
       <c r="B4" t="n">
-        <v>14.59254114542115</v>
+        <v>14.64608114246996</v>
       </c>
       <c r="C4" t="n">
-        <v>19.89619233080537</v>
+        <v>19.86450588533677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21.40200897472573</v>
+        <v>21.40601637464777</v>
       </c>
       <c r="B5" t="n">
-        <v>17.04352749295597</v>
+        <v>16.93890992690268</v>
       </c>
       <c r="C5" t="n">
-        <v>25.61075252106328</v>
+        <v>25.6035948897917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21.27417008544755</v>
+        <v>21.25182729152693</v>
       </c>
       <c r="B6" t="n">
-        <v>18.67100345339968</v>
+        <v>18.51402150611681</v>
       </c>
       <c r="C6" t="n">
-        <v>24.14534478884911</v>
+        <v>24.08685669652202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14.20407896967435</v>
+        <v>14.24643923135528</v>
       </c>
       <c r="B7" t="n">
-        <v>11.56308230599258</v>
+        <v>11.57817942179415</v>
       </c>
       <c r="C7" t="n">
-        <v>17.01117477645803</v>
+        <v>17.06253846085109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.880758651604363</v>
+        <v>4.875452821812425</v>
       </c>
       <c r="B8" t="n">
-        <v>3.252186979150454</v>
+        <v>3.207000433750151</v>
       </c>
       <c r="C8" t="n">
-        <v>7.334518040263773</v>
+        <v>7.323750774061892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19.59019838639471</v>
+        <v>19.59092723058472</v>
       </c>
       <c r="B9" t="n">
-        <v>17.38642604185033</v>
+        <v>17.2761610890342</v>
       </c>
       <c r="C9" t="n">
-        <v>22.37793740360223</v>
+        <v>22.48915157788146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.929035815251446</v>
+        <v>4.940534701879073</v>
       </c>
       <c r="B10" t="n">
-        <v>3.179842639422246</v>
+        <v>3.188934070114838</v>
       </c>
       <c r="C10" t="n">
-        <v>7.639969545647067</v>
+        <v>7.803381616884126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12.65593379479703</v>
+        <v>12.88397627119304</v>
       </c>
       <c r="B11" t="n">
-        <v>9.11865886193586</v>
+        <v>9.166611337785609</v>
       </c>
       <c r="C11" t="n">
-        <v>17.28645177612264</v>
+        <v>17.32083232877174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>21.32659207350603</v>
+        <v>21.32986611255614</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4144623694897</v>
+        <v>17.57538731305797</v>
       </c>
       <c r="C12" t="n">
-        <v>24.91365990004121</v>
+        <v>25.11510314202779</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.002879962900042</v>
+        <v>7.03308902926521</v>
       </c>
       <c r="B13" t="n">
-        <v>4.460864855265843</v>
+        <v>4.469250347012947</v>
       </c>
       <c r="C13" t="n">
-        <v>11.01362576573856</v>
+        <v>11.06956196423835</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.474512674552489</v>
+        <v>9.485787625537537</v>
       </c>
       <c r="B14" t="n">
-        <v>6.378811529944925</v>
+        <v>6.298063163637429</v>
       </c>
       <c r="C14" t="n">
-        <v>13.57877180610009</v>
+        <v>13.60023422940988</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>25.19199244761944</v>
+        <v>25.48147809740647</v>
       </c>
       <c r="B15" t="n">
-        <v>20.43508129317176</v>
+        <v>20.15155541886025</v>
       </c>
       <c r="C15" t="n">
-        <v>31.25021414979617</v>
+        <v>31.43924131942448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21.28104901093429</v>
+        <v>21.2368800065592</v>
       </c>
       <c r="B16" t="n">
-        <v>18.61163186943414</v>
+        <v>18.45154832622705</v>
       </c>
       <c r="C16" t="n">
-        <v>24.20695580094941</v>
+        <v>24.09408536614571</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21.25128294445792</v>
+        <v>21.32162833696087</v>
       </c>
       <c r="B17" t="n">
-        <v>17.53269133060535</v>
+        <v>17.70554538489739</v>
       </c>
       <c r="C17" t="n">
-        <v>24.72465187960487</v>
+        <v>24.94269668813383</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17.21442622705923</v>
+        <v>17.14531120486389</v>
       </c>
       <c r="B18" t="n">
-        <v>14.59091744815783</v>
+        <v>14.64294758764848</v>
       </c>
       <c r="C18" t="n">
-        <v>19.90208193171315</v>
+        <v>19.81835430858394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>13.49355616650214</v>
+        <v>13.46384327159959</v>
       </c>
       <c r="B19" t="n">
-        <v>9.228420387387693</v>
+        <v>9.247965110643952</v>
       </c>
       <c r="C19" t="n">
-        <v>18.55974397533246</v>
+        <v>18.55663906555142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>24.14098271044172</v>
+        <v>24.10587916593659</v>
       </c>
       <c r="B20" t="n">
-        <v>20.85371104535107</v>
+        <v>20.8351078425097</v>
       </c>
       <c r="C20" t="n">
-        <v>27.4260493993994</v>
+        <v>27.53498420171085</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>24.28387571846537</v>
+        <v>24.21272169008476</v>
       </c>
       <c r="B21" t="n">
-        <v>20.70250553323913</v>
+        <v>21.1163469436474</v>
       </c>
       <c r="C21" t="n">
-        <v>28.05931367184723</v>
+        <v>28.02707874055412</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.983942211684459</v>
+        <v>4.941334080942064</v>
       </c>
       <c r="B22" t="n">
-        <v>3.245979719819723</v>
+        <v>3.278256580250292</v>
       </c>
       <c r="C22" t="n">
-        <v>7.553959324661317</v>
+        <v>7.474817068607104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>26.99995060621745</v>
+        <v>26.95613202808381</v>
       </c>
       <c r="B23" t="n">
-        <v>21.91584682526729</v>
+        <v>21.6745839321687</v>
       </c>
       <c r="C23" t="n">
-        <v>32.13634495226191</v>
+        <v>32.26564750192062</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21.28907488502785</v>
+        <v>21.32323045398253</v>
       </c>
       <c r="B24" t="n">
-        <v>18.614493300976</v>
+        <v>18.5383844016844</v>
       </c>
       <c r="C24" t="n">
-        <v>24.2662450330876</v>
+        <v>24.2234348390437</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>18.03971010598549</v>
+        <v>18.07315072054334</v>
       </c>
       <c r="B25" t="n">
-        <v>16.00154156988075</v>
+        <v>15.86753218119703</v>
       </c>
       <c r="C25" t="n">
-        <v>20.52362460978414</v>
+        <v>20.51082379811587</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24.28950223966659</v>
+        <v>24.10097828733611</v>
       </c>
       <c r="B26" t="n">
-        <v>20.77184944654669</v>
+        <v>21.08185181469875</v>
       </c>
       <c r="C26" t="n">
-        <v>27.66779641354873</v>
+        <v>27.46322651452349</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.120217718073847</v>
+        <v>7.086754965669518</v>
       </c>
       <c r="B27" t="n">
-        <v>4.42725174857021</v>
+        <v>4.463349230929065</v>
       </c>
       <c r="C27" t="n">
-        <v>10.90542839613324</v>
+        <v>10.88667272194598</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15.13247656817268</v>
+        <v>15.12546337189659</v>
       </c>
       <c r="B28" t="n">
-        <v>12.5661151837487</v>
+        <v>12.59360931082749</v>
       </c>
       <c r="C28" t="n">
-        <v>18.15434250814026</v>
+        <v>18.13349599513829</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28.77857440145085</v>
+        <v>28.78689838660346</v>
       </c>
       <c r="B29" t="n">
-        <v>23.8578718734412</v>
+        <v>23.8202307687513</v>
       </c>
       <c r="C29" t="n">
-        <v>34.6645660560825</v>
+        <v>34.75594095845128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20.09544527867143</v>
+        <v>20.05876837892758</v>
       </c>
       <c r="B30" t="n">
-        <v>17.11640524860161</v>
+        <v>17.11298132017111</v>
       </c>
       <c r="C30" t="n">
-        <v>22.9807889841513</v>
+        <v>22.98934727440846</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.003321398874661</v>
+        <v>9.063780866810335</v>
       </c>
       <c r="B31" t="n">
-        <v>6.322602493425993</v>
+        <v>6.149079716916478</v>
       </c>
       <c r="C31" t="n">
-        <v>12.43081673382086</v>
+        <v>12.31517642412827</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.694827078087928</v>
+        <v>6.723486076341496</v>
       </c>
       <c r="B32" t="n">
-        <v>4.468522747348159</v>
+        <v>4.539586460153668</v>
       </c>
       <c r="C32" t="n">
-        <v>9.913268992114812</v>
+        <v>9.911779863023797</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.463648287958037</v>
+        <v>9.488771294180921</v>
       </c>
       <c r="B33" t="n">
-        <v>6.402288118162923</v>
+        <v>6.393383767618546</v>
       </c>
       <c r="C33" t="n">
-        <v>13.65580270399929</v>
+        <v>13.60420496769811</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>18.00914451079126</v>
+        <v>18.00185547221949</v>
       </c>
       <c r="B34" t="n">
-        <v>13.2987458599342</v>
+        <v>13.26064402157137</v>
       </c>
       <c r="C34" t="n">
-        <v>22.63308609067301</v>
+        <v>22.53464116178023</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>22.66787837558886</v>
+        <v>22.61969692679389</v>
       </c>
       <c r="B35" t="n">
-        <v>19.84765872016034</v>
+        <v>19.79891179836313</v>
       </c>
       <c r="C35" t="n">
-        <v>25.70100310339222</v>
+        <v>25.6775063906045</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14.2303782291258</v>
+        <v>14.25672547837477</v>
       </c>
       <c r="B36" t="n">
-        <v>11.61932689183805</v>
+        <v>11.57324553755865</v>
       </c>
       <c r="C36" t="n">
-        <v>16.98019151401942</v>
+        <v>16.94387624989922</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>26.10468603894254</v>
+        <v>26.1350998657001</v>
       </c>
       <c r="B37" t="n">
-        <v>21.97457887686415</v>
+        <v>22.22205520575348</v>
       </c>
       <c r="C37" t="n">
-        <v>29.63827003084221</v>
+        <v>30.06911346133122</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.698418845812526</v>
+        <v>9.677531949858944</v>
       </c>
       <c r="B38" t="n">
-        <v>6.318399034357965</v>
+        <v>6.172235935730229</v>
       </c>
       <c r="C38" t="n">
-        <v>13.78629988766907</v>
+        <v>13.66440728744229</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21.88441090484459</v>
+        <v>21.93833621318485</v>
       </c>
       <c r="B39" t="n">
-        <v>17.84117300089824</v>
+        <v>18.08336784859254</v>
       </c>
       <c r="C39" t="n">
-        <v>26.11011240858237</v>
+        <v>26.22586288867161</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20.79970769539776</v>
+        <v>20.81363723742491</v>
       </c>
       <c r="B40" t="n">
-        <v>17.60461118221404</v>
+        <v>17.73215804123688</v>
       </c>
       <c r="C40" t="n">
-        <v>24.08052575761386</v>
+        <v>24.06318936933185</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13.34536585081394</v>
+        <v>13.32245204728365</v>
       </c>
       <c r="B41" t="n">
-        <v>11.13969341294178</v>
+        <v>11.10787418942105</v>
       </c>
       <c r="C41" t="n">
-        <v>15.47232155367387</v>
+        <v>15.46509347539225</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13.09275613050154</v>
+        <v>13.09597104300955</v>
       </c>
       <c r="B42" t="n">
-        <v>9.241402712629963</v>
+        <v>9.304385506167764</v>
       </c>
       <c r="C42" t="n">
-        <v>17.63308685433253</v>
+        <v>17.61078408310367</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20.09544527867143</v>
+        <v>20.0581177081499</v>
       </c>
       <c r="B43" t="n">
-        <v>17.11968814683386</v>
+        <v>17.11072486066232</v>
       </c>
       <c r="C43" t="n">
-        <v>22.9800767562441</v>
+        <v>22.98755217153743</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11.03230097832325</v>
+        <v>11.04869832632787</v>
       </c>
       <c r="B44" t="n">
-        <v>8.523515138746102</v>
+        <v>8.411918766435258</v>
       </c>
       <c r="C44" t="n">
-        <v>13.89419883284163</v>
+        <v>13.87533784038574</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13.40371687788557</v>
+        <v>13.32720116828266</v>
       </c>
       <c r="B45" t="n">
-        <v>9.169436850402899</v>
+        <v>9.055937144890075</v>
       </c>
       <c r="C45" t="n">
-        <v>17.58443901826415</v>
+        <v>17.5489841992224</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.913987436333723</v>
+        <v>8.904165118766553</v>
       </c>
       <c r="B46" t="n">
-        <v>6.055455037058326</v>
+        <v>5.970305076466435</v>
       </c>
       <c r="C46" t="n">
-        <v>12.18889384720769</v>
+        <v>12.18406382753753</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.031038475150228</v>
+        <v>5.018957560836838</v>
       </c>
       <c r="B47" t="n">
-        <v>3.230465908026961</v>
+        <v>3.19089990607358</v>
       </c>
       <c r="C47" t="n">
-        <v>7.676249287187784</v>
+        <v>7.745789201948318</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>21.37548048739949</v>
+        <v>21.43234540378484</v>
       </c>
       <c r="B48" t="n">
-        <v>17.52882331185105</v>
+        <v>17.57555277806394</v>
       </c>
       <c r="C48" t="n">
-        <v>24.9442309908284</v>
+        <v>25.21822223929305</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>18.94836361102232</v>
+        <v>18.95751915449611</v>
       </c>
       <c r="B49" t="n">
-        <v>15.92603675170771</v>
+        <v>16.07753431737913</v>
       </c>
       <c r="C49" t="n">
-        <v>21.88190918844215</v>
+        <v>21.82826545187725</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26.04587187382295</v>
+        <v>26.08419400448929</v>
       </c>
       <c r="B50" t="n">
-        <v>22.02965347814918</v>
+        <v>22.2264855473252</v>
       </c>
       <c r="C50" t="n">
-        <v>29.7349853846355</v>
+        <v>29.96942497224523</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17.64268048450567</v>
+        <v>17.68222642076326</v>
       </c>
       <c r="B51" t="n">
-        <v>13.63097985874131</v>
+        <v>13.61358276844428</v>
       </c>
       <c r="C51" t="n">
-        <v>21.5802723439963</v>
+        <v>21.44773332503449</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.758724701828481</v>
+        <v>8.718864145421254</v>
       </c>
       <c r="B52" t="n">
-        <v>6.201741877917568</v>
+        <v>6.220896679627077</v>
       </c>
       <c r="C52" t="n">
-        <v>11.81187022930352</v>
+        <v>11.83549854912799</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>21.85629787035233</v>
+        <v>21.97761300182407</v>
       </c>
       <c r="B53" t="n">
-        <v>17.85217802528852</v>
+        <v>17.92826279956578</v>
       </c>
       <c r="C53" t="n">
-        <v>25.87723475095785</v>
+        <v>26.0611810594617</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>25.25601717609205</v>
+        <v>25.38235944533855</v>
       </c>
       <c r="B54" t="n">
-        <v>20.38018127949137</v>
+        <v>20.02608353634214</v>
       </c>
       <c r="C54" t="n">
-        <v>31.1597958637074</v>
+        <v>31.31003790780434</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>24.28133725990013</v>
+        <v>24.12241941926847</v>
       </c>
       <c r="B55" t="n">
-        <v>20.69492237413221</v>
+        <v>21.01877208660854</v>
       </c>
       <c r="C55" t="n">
-        <v>27.88345058497458</v>
+        <v>27.80073367778109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9.17461906045946</v>
+        <v>9.1752042687122</v>
       </c>
       <c r="B56" t="n">
-        <v>6.415326378841334</v>
+        <v>6.482146440264168</v>
       </c>
       <c r="C56" t="n">
-        <v>12.5212544686186</v>
+        <v>12.39424881163156</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6.687281553577297</v>
+        <v>6.71985316093577</v>
       </c>
       <c r="B57" t="n">
-        <v>4.426319553868179</v>
+        <v>4.468085208783333</v>
       </c>
       <c r="C57" t="n">
-        <v>9.864731432881294</v>
+        <v>9.801452457003192</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>26.09539144716507</v>
+        <v>26.09866291007773</v>
       </c>
       <c r="B58" t="n">
-        <v>21.97449043402957</v>
+        <v>22.22235707438722</v>
       </c>
       <c r="C58" t="n">
-        <v>29.59710765731646</v>
+        <v>29.89696611861953</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12.09560256568235</v>
+        <v>12.05437658029511</v>
       </c>
       <c r="B59" t="n">
-        <v>8.902603715098884</v>
+        <v>8.735008018149474</v>
       </c>
       <c r="C59" t="n">
-        <v>15.54298352498439</v>
+        <v>15.52856705927967</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>26.97868617741424</v>
+        <v>27.18943429493288</v>
       </c>
       <c r="B60" t="n">
-        <v>21.97750056006872</v>
+        <v>21.92090683452057</v>
       </c>
       <c r="C60" t="n">
-        <v>32.69736457749448</v>
+        <v>32.74171184343079</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9.654548978555681</v>
+        <v>9.655016244653604</v>
       </c>
       <c r="B61" t="n">
-        <v>6.421412549078493</v>
+        <v>6.41656882845882</v>
       </c>
       <c r="C61" t="n">
-        <v>14.18168572961694</v>
+        <v>14.15185844989305</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12.64400085893513</v>
+        <v>12.89872021790817</v>
       </c>
       <c r="B62" t="n">
-        <v>9.109704067203118</v>
+        <v>9.187482350178581</v>
       </c>
       <c r="C62" t="n">
-        <v>17.21319090177191</v>
+        <v>17.24474691744372</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.786791280144795</v>
+        <v>9.736563933887577</v>
       </c>
       <c r="B63" t="n">
-        <v>6.003489451393147</v>
+        <v>6.162881423430731</v>
       </c>
       <c r="C63" t="n">
-        <v>14.58643680165581</v>
+        <v>14.55931158677468</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>26.99356217150497</v>
+        <v>27.19421131838776</v>
       </c>
       <c r="B64" t="n">
-        <v>21.98145478604168</v>
+        <v>21.94463219035836</v>
       </c>
       <c r="C64" t="n">
-        <v>32.63233755853712</v>
+        <v>32.7359574131038</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6.594408031665243</v>
+        <v>6.579679562515837</v>
       </c>
       <c r="B65" t="n">
-        <v>4.34783720210371</v>
+        <v>4.294559259120946</v>
       </c>
       <c r="C65" t="n">
-        <v>9.43481049545932</v>
+        <v>9.421931006669848</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>17.41039073201097</v>
+        <v>17.44695048844174</v>
       </c>
       <c r="B66" t="n">
-        <v>13.26727562659688</v>
+        <v>13.4108228653142</v>
       </c>
       <c r="C66" t="n">
-        <v>21.74582243615196</v>
+        <v>21.79868677428284</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>16.77298197054611</v>
+        <v>16.75050609352498</v>
       </c>
       <c r="B67" t="n">
-        <v>13.00381940071522</v>
+        <v>13.12568535069761</v>
       </c>
       <c r="C67" t="n">
-        <v>20.35984781234038</v>
+        <v>20.30815283185558</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>22.65840963727159</v>
+        <v>22.7028317956696</v>
       </c>
       <c r="B68" t="n">
-        <v>19.23594391563238</v>
+        <v>19.4312358141118</v>
       </c>
       <c r="C68" t="n">
-        <v>26.27117366064385</v>
+        <v>26.13950062840323</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.985344340529998</v>
+        <v>4.981704021492909</v>
       </c>
       <c r="B69" t="n">
-        <v>3.247836181625388</v>
+        <v>3.233522541080089</v>
       </c>
       <c r="C69" t="n">
-        <v>7.751263976515663</v>
+        <v>7.680892900515082</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>20.77115891833664</v>
+        <v>20.65026496877794</v>
       </c>
       <c r="B70" t="n">
-        <v>17.70975286953062</v>
+        <v>17.85176502008645</v>
       </c>
       <c r="C70" t="n">
-        <v>23.98777851096881</v>
+        <v>23.89752369307757</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>15.07277459872104</v>
+        <v>15.08689766139918</v>
       </c>
       <c r="B71" t="n">
-        <v>13.00203433222459</v>
+        <v>13.03989922131687</v>
       </c>
       <c r="C71" t="n">
-        <v>17.13878214974686</v>
+        <v>17.15973979756303</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>17.64419996504369</v>
+        <v>17.62019369232228</v>
       </c>
       <c r="B72" t="n">
-        <v>15.13973983022697</v>
+        <v>15.06401229017496</v>
       </c>
       <c r="C72" t="n">
-        <v>20.33399887307112</v>
+        <v>20.33597446836358</v>
       </c>
     </row>
   </sheetData>
